--- a/dados_extensao/extensao.xlsx
+++ b/dados_extensao/extensao.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_extensao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14490" windowHeight="7080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cursos_extensao" sheetId="1" r:id="rId1"/>
     <sheet name="unidades_extensao" sheetId="2" r:id="rId2"/>
-    <sheet name="publico_extensao" sheetId="3" r:id="rId3"/>
-    <sheet name="Plan4" sheetId="4" r:id="rId4"/>
+    <sheet name="Público" sheetId="3" r:id="rId3"/>
+    <sheet name="Evolução" sheetId="6" r:id="rId4"/>
     <sheet name="semana_universitaria" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="284">
-  <si>
-    <t>Tipo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="294">
   <si>
     <t>Espécie</t>
   </si>
@@ -168,9 +165,6 @@
     <t>Sigla</t>
   </si>
   <si>
-    <t>Unidade</t>
-  </si>
-  <si>
     <t>Qtde. ações</t>
   </si>
   <si>
@@ -880,13 +874,49 @@
   </si>
   <si>
     <t>Participantes Externos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação Contínua                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento de Ciência da Computação             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento de Jornalismo                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento de Psicologia Clínica                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro de Desenvolvimento Sustentável             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Geociências                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depto.de Teoria e Hist.em Arquitetura e Urbanismo </t>
+  </si>
+  <si>
+    <t>Unidade / Tipo</t>
+  </si>
+  <si>
+    <t>Unidade / Espécie</t>
+  </si>
+  <si>
+    <t>Unidade / Ano</t>
+  </si>
+  <si>
+    <t>Unidade / Sigla</t>
+  </si>
+  <si>
+    <t>Unidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +943,12 @@
       <color theme="1"/>
       <name val="Unb office"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -931,10 +967,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -961,9 +998,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -981,7 +1025,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1019,7 +1063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1091,7 +1135,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,7 +1288,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,29 +1300,29 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -1292,10 +1336,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>152</v>
@@ -1309,10 +1353,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1326,10 +1370,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1343,10 +1387,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>301</v>
@@ -1360,10 +1404,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1377,10 +1421,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1394,10 +1438,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>10</v>
@@ -1411,10 +1455,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -1428,10 +1472,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1445,10 +1489,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1462,10 +1506,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -1479,10 +1523,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>10</v>
@@ -1496,10 +1540,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>21</v>
@@ -1513,10 +1557,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
@@ -1530,10 +1574,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -1547,10 +1591,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1564,10 +1608,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
@@ -1581,10 +1625,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1598,10 +1642,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1615,10 +1659,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -1632,10 +1676,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1649,10 +1693,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>39</v>
@@ -1666,10 +1710,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1683,10 +1727,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
@@ -1700,10 +1744,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>7</v>
@@ -1717,10 +1761,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -1734,10 +1778,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
         <v>4</v>
@@ -1751,10 +1795,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -1768,10 +1812,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1785,10 +1829,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
@@ -1802,10 +1846,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1819,10 +1863,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
@@ -1836,10 +1880,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>16</v>
@@ -1853,10 +1897,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3">
         <v>20</v>
@@ -1870,10 +1914,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3">
         <v>14</v>
@@ -1887,10 +1931,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3">
         <v>31</v>
@@ -1904,10 +1948,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -1921,10 +1965,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1938,10 +1982,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1955,10 +1999,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -1972,10 +2016,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="3">
         <v>7</v>
@@ -1989,10 +2033,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3">
         <v>50</v>
@@ -2006,10 +2050,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3">
         <v>7</v>
@@ -2023,10 +2067,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -2040,10 +2084,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -2057,10 +2101,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -2074,10 +2118,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -2090,6 +2134,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="B2:B49"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2100,32 +2148,33 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -2133,10 +2182,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -2144,10 +2193,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -2155,10 +2204,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -2166,10 +2215,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>28</v>
@@ -2177,10 +2226,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -2188,10 +2237,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3">
         <v>9</v>
@@ -2199,10 +2248,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3">
         <v>19</v>
@@ -2210,10 +2259,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -2221,10 +2270,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -2232,10 +2281,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3">
         <v>38</v>
@@ -2243,10 +2292,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -2254,10 +2303,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3">
         <v>14</v>
@@ -2265,10 +2314,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -2276,10 +2325,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -2287,10 +2336,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
@@ -2298,10 +2347,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2309,10 +2358,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -2320,10 +2369,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -2331,10 +2380,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3">
         <v>8</v>
@@ -2342,21 +2391,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -2364,10 +2413,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -2375,10 +2424,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="3">
         <v>21</v>
@@ -2386,10 +2435,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
@@ -2397,10 +2446,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -2408,10 +2457,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2419,10 +2468,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
@@ -2430,10 +2479,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -2441,21 +2490,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30">
-      <c r="A32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -2463,10 +2512,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3">
         <v>16</v>
@@ -2474,10 +2523,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -2485,10 +2534,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -2496,10 +2545,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -2507,10 +2556,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -2518,10 +2567,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="3">
         <v>7</v>
@@ -2529,10 +2578,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3">
         <v>35</v>
@@ -2540,10 +2589,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3">
         <v>13</v>
@@ -2551,10 +2600,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="3">
         <v>4</v>
@@ -2562,10 +2611,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -2573,10 +2622,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3">
         <v>5</v>
@@ -2584,10 +2633,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C44" s="3">
         <v>10</v>
@@ -2595,10 +2644,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
@@ -2606,10 +2655,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -2617,10 +2666,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3">
         <v>8</v>
@@ -2628,10 +2677,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C48" s="3">
         <v>17</v>
@@ -2639,10 +2688,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="3">
         <v>44</v>
@@ -2650,10 +2699,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="3">
         <v>69</v>
@@ -2661,10 +2710,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="3">
         <v>7</v>
@@ -2672,10 +2721,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="3">
         <v>36</v>
@@ -2683,10 +2732,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
@@ -2694,10 +2743,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -2705,10 +2754,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="3">
         <v>54</v>
@@ -2716,10 +2765,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="3">
         <v>10</v>
@@ -2727,10 +2776,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -2738,10 +2787,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" s="3">
         <v>34</v>
@@ -2749,10 +2798,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -2760,10 +2809,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" s="3">
         <v>8</v>
@@ -2771,10 +2820,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -2782,10 +2831,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -2793,10 +2842,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="3">
         <v>55</v>
@@ -2804,10 +2853,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" s="3">
         <v>6</v>
@@ -2815,10 +2864,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -2826,10 +2875,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" s="3">
         <v>10</v>
@@ -2837,10 +2886,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -2848,10 +2897,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -2859,10 +2908,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="3">
         <v>5</v>
@@ -2870,10 +2919,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" s="3">
         <v>10</v>
@@ -2881,10 +2930,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="3">
         <v>3</v>
@@ -2892,10 +2941,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="3">
         <v>5</v>
@@ -2903,10 +2952,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -2914,10 +2963,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C74" s="3">
         <v>2</v>
@@ -2925,10 +2974,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" s="3">
         <v>10</v>
@@ -2936,10 +2985,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
@@ -2947,10 +2996,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C77" s="3">
         <v>2</v>
@@ -2958,10 +3007,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
@@ -2969,10 +3018,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" s="3">
         <v>4</v>
@@ -2980,10 +3029,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="3">
         <v>2</v>
@@ -2991,10 +3040,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -3002,10 +3051,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82" s="3">
         <v>16</v>
@@ -3013,10 +3062,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
@@ -3024,10 +3073,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C84" s="3">
         <v>3</v>
@@ -3035,10 +3084,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
@@ -3046,10 +3095,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C86" s="3">
         <v>8</v>
@@ -3057,10 +3106,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C87" s="3">
         <v>7</v>
@@ -3068,10 +3117,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="3">
         <v>8</v>
@@ -3079,10 +3128,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C89" s="3">
         <v>6</v>
@@ -3090,10 +3139,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C90" s="3">
         <v>224</v>
@@ -3101,10 +3150,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="3">
         <v>29</v>
@@ -3112,10 +3161,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92" s="3">
         <v>25</v>
@@ -3123,10 +3172,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93" s="3">
         <v>3</v>
@@ -3134,10 +3183,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94" s="3">
         <v>12</v>
@@ -3145,10 +3194,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" s="3">
         <v>24</v>
@@ -3156,10 +3205,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -3167,10 +3216,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" s="3">
         <v>6</v>
@@ -3178,10 +3227,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C98" s="3">
         <v>4</v>
@@ -3189,10 +3238,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -3200,10 +3249,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C100" s="3">
         <v>4</v>
@@ -3211,21 +3260,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C101" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30">
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C102" s="3">
         <v>5</v>
@@ -3233,10 +3282,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
@@ -3244,10 +3293,10 @@
     </row>
     <row r="104" spans="1:3" ht="30">
       <c r="A104" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C104" s="3">
         <v>7</v>
@@ -3255,10 +3304,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C105" s="3">
         <v>2</v>
@@ -3266,10 +3315,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C106" s="3">
         <v>8</v>
@@ -3277,10 +3326,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C107" s="3">
         <v>3</v>
@@ -3288,10 +3337,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
@@ -3299,10 +3348,10 @@
     </row>
     <row r="109" spans="1:3" ht="30">
       <c r="A109" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C109" s="3">
         <v>7</v>
@@ -3310,10 +3359,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C110" s="3">
         <v>15</v>
@@ -3321,10 +3370,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C111" s="3">
         <v>18</v>
@@ -3332,10 +3381,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C112" s="3">
         <v>2</v>
@@ -3343,10 +3392,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
@@ -3354,10 +3403,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C114" s="3">
         <v>87</v>
@@ -3365,10 +3414,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
@@ -3376,10 +3425,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C116" s="3">
         <v>2</v>
@@ -3394,7 +3443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3403,26 +3454,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="76.5">
       <c r="A1" s="4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
       <c r="B2" s="7">
@@ -3442,7 +3493,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="13">
         <v>2016</v>
       </c>
       <c r="B3" s="7">
@@ -3462,7 +3513,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
       <c r="B4" s="7">
@@ -3482,7 +3533,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="13">
         <v>2018</v>
       </c>
       <c r="B5" s="7">
@@ -3502,11 +3553,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="13">
         <v>2019</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" s="7">
         <v>4730</v>
@@ -3523,17 +3574,175 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="10" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3542,9 +3751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3553,21 +3760,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9">
         <v>60</v>
@@ -3575,10 +3782,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9">
         <v>33875</v>
@@ -3586,10 +3793,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
         <v>21</v>
@@ -3597,10 +3804,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9">
         <v>55</v>
@@ -3608,10 +3815,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="9">
         <v>98</v>
@@ -3619,10 +3826,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -3630,10 +3837,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9">
         <v>28</v>
@@ -3641,10 +3848,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
         <v>131</v>
@@ -3652,10 +3859,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
         <v>105</v>
@@ -3663,10 +3870,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="9">
         <v>2867</v>
@@ -3674,10 +3881,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9">
         <v>180</v>
@@ -3685,10 +3892,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9">
         <v>31</v>
@@ -3696,10 +3903,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9">
         <v>358</v>
@@ -3707,10 +3914,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>2376</v>
@@ -3718,10 +3925,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9">
         <v>16</v>
@@ -3729,10 +3936,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9">
         <v>4146</v>
@@ -3740,10 +3947,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9">
         <v>34</v>
@@ -3751,10 +3958,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9">
         <v>144</v>
@@ -3762,10 +3969,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="9">
         <v>138</v>
@@ -3773,10 +3980,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="9">
         <v>66</v>
@@ -3784,10 +3991,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9">
         <v>755</v>
@@ -3795,10 +4002,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="9">
         <v>1085</v>
@@ -3806,10 +4013,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9">
         <v>209</v>
@@ -3817,10 +4024,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="9">
         <v>249</v>
@@ -3828,10 +4035,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="9">
         <v>918</v>
@@ -3839,10 +4046,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9">
         <v>1008</v>
@@ -3850,10 +4057,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9">
         <v>2726</v>
@@ -3861,10 +4068,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9">
         <v>341</v>
@@ -3872,10 +4079,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9">
         <v>371</v>
@@ -3883,10 +4090,10 @@
     </row>
     <row r="31" spans="1:3" ht="30">
       <c r="A31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="9">
         <v>141</v>
@@ -3894,10 +4101,10 @@
     </row>
     <row r="32" spans="1:3" ht="30">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -3905,10 +4112,10 @@
     </row>
     <row r="33" spans="1:3" ht="30">
       <c r="A33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="9">
         <v>700</v>
@@ -3916,10 +4123,10 @@
     </row>
     <row r="34" spans="1:3" ht="30">
       <c r="A34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9">
         <v>50</v>
